--- a/QALegend/Files/QALegend.xlsx
+++ b/QALegend/Files/QALegend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564B9441-86EE-41BF-9E0A-DA2419131E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98711585-3FE7-4C83-BDEB-F441EEB584CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>TestCases</t>
   </si>
@@ -150,10 +150,64 @@
     <t>testobs</t>
   </si>
   <si>
-    <t>OBSuser</t>
-  </si>
-  <si>
     <t>obs@obs.com</t>
+  </si>
+  <si>
+    <t>OBS Waiter</t>
+  </si>
+  <si>
+    <t>obs@test</t>
+  </si>
+  <si>
+    <t>OBSUser</t>
+  </si>
+  <si>
+    <t>OBS Store</t>
+  </si>
+  <si>
+    <t>EWaiter</t>
+  </si>
+  <si>
+    <t>EStore</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>EZone</t>
+  </si>
+  <si>
+    <t>Test OBS Zone</t>
+  </si>
+  <si>
+    <t>StoreTable</t>
+  </si>
+  <si>
+    <t>Test OBS S-table</t>
+  </si>
+  <si>
+    <t>OBS Zone</t>
+  </si>
+  <si>
+    <t>EEStoreTbl</t>
+  </si>
+  <si>
+    <t>OBS S-Table</t>
+  </si>
+  <si>
+    <t>InvalidUser</t>
+  </si>
+  <si>
+    <t>InvalidUn</t>
+  </si>
+  <si>
+    <t>InvalidPswd</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -201,10 +255,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +718,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -673,14 +726,97 @@
       <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>42</v>
+      <c r="E8" t="s">
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
       </c>
       <c r="G8" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>3434</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>98765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
